--- a/data/outputs/能源化工元源数据文件_elsevier/13CHEMICAL ENGINEERING & TECHNOLOGY.xlsx
+++ b/data/outputs/能源化工元源数据文件_elsevier/13CHEMICAL ENGINEERING & TECHNOLOGY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS268"/>
+  <dimension ref="A1:BU268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -951,6 +961,12 @@
           <t>2-s2.0-84948653796</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1168,6 +1184,12 @@
           <t>2-s2.0-84947969456</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1389,6 +1411,12 @@
           <t>2-s2.0-84947996801</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1610,6 +1638,12 @@
           <t>2-s2.0-84947903474</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1835,6 +1869,12 @@
           <t>2-s2.0-84947967385</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2058,6 +2098,12 @@
           <t>2-s2.0-84947909275</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2287,6 +2333,12 @@
           <t>2-s2.0-84947997815</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2516,6 +2568,12 @@
           <t>2-s2.0-84947998891</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2733,6 +2791,12 @@
           <t>2-s2.0-84947967384</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2953,6 +3017,12 @@
         <is>
           <t>2-s2.0-84947911964</t>
         </is>
+      </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -3167,6 +3237,12 @@
           <t>2-s2.0-84947968454</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3388,6 +3464,12 @@
           <t>2-s2.0-84947908343</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3605,6 +3687,12 @@
           <t>2-s2.0-84947968453</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3825,6 +3913,12 @@
         <is>
           <t>2-s2.0-84947907883</t>
         </is>
+      </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -4033,6 +4127,12 @@
           <t>2-s2.0-84948656916</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4250,6 +4350,12 @@
           <t>2-s2.0-84947983365</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4463,6 +4569,12 @@
           <t>2-s2.0-84947937597</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4688,6 +4800,12 @@
           <t>2-s2.0-84947943761</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4909,6 +5027,12 @@
           <t>2-s2.0-84947939527</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5130,6 +5254,12 @@
           <t>2-s2.0-84947938152</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5359,6 +5489,12 @@
           <t>2-s2.0-84948653734</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5576,6 +5712,12 @@
           <t>2-s2.0-84947916429</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5805,6 +5947,12 @@
           <t>2-s2.0-84947967382</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6032,6 +6180,12 @@
           <t>2-s2.0-84947936437</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6253,6 +6407,12 @@
           <t>2-s2.0-84947936968</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6481,6 +6641,12 @@
         <is>
           <t>2-s2.0-84947967383</t>
         </is>
+      </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -6689,6 +6855,12 @@
           <t>2-s2.0-84944717719</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6922,6 +7094,12 @@
           <t>2-s2.0-84944755172</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7150,6 +7328,12 @@
         <is>
           <t>2-s2.0-84944749917</t>
         </is>
+      </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -7366,6 +7550,12 @@
           <t>2-s2.0-84944735372</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7603,6 +7793,12 @@
           <t>2-s2.0-84944810978</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7828,6 +8024,12 @@
           <t>2-s2.0-84944740046</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8060,6 +8262,12 @@
         <is>
           <t>2-s2.0-84944754663</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -8278,6 +8486,12 @@
           <t>2-s2.0-84944746638</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8503,6 +8717,12 @@
           <t>2-s2.0-84945471515</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8736,6 +8956,12 @@
           <t>2-s2.0-84945458294</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8957,6 +9183,12 @@
           <t>2-s2.0-84945439816</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9186,6 +9418,12 @@
           <t>2-s2.0-84944790414</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9411,6 +9649,12 @@
           <t>2-s2.0-84945474795</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9636,6 +9880,12 @@
           <t>2-s2.0-84944754681</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9857,6 +10107,12 @@
           <t>2-s2.0-84944789864</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10078,6 +10334,12 @@
           <t>2-s2.0-84944737029</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -10311,6 +10573,12 @@
           <t>2-s2.0-84944755188</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10536,6 +10804,12 @@
           <t>2-s2.0-84944729111</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10765,6 +11039,12 @@
           <t>2-s2.0-84944728907</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10998,6 +11278,12 @@
           <t>2-s2.0-84944811003</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11227,6 +11513,12 @@
           <t>2-s2.0-84944809927</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11460,6 +11752,12 @@
           <t>2-s2.0-84945440632</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11692,6 +11990,12 @@
         <is>
           <t>2-s2.0-84944809925</t>
         </is>
+      </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -11898,6 +12202,12 @@
           <t>2-s2.0-84942807489</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -12127,6 +12437,12 @@
           <t>2-s2.0-84942835140</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -12360,6 +12676,12 @@
           <t>2-s2.0-84942750109</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12585,6 +12907,12 @@
           <t>2-s2.0-84942817084</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12818,6 +13146,12 @@
           <t>2-s2.0-84942839280</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -13051,6 +13385,12 @@
           <t>2-s2.0-84942821554</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13276,6 +13616,12 @@
           <t>2-s2.0-84942837360</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13500,6 +13846,12 @@
         <is>
           <t>2-s2.0-84942838289</t>
         </is>
+      </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -13718,6 +14070,12 @@
           <t>2-s2.0-84942806994</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13939,6 +14297,12 @@
           <t>2-s2.0-84942832912</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -14164,6 +14528,12 @@
           <t>2-s2.0-84942824305</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -14385,6 +14755,12 @@
           <t>2-s2.0-84942773652</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14614,6 +14990,12 @@
           <t>2-s2.0-84942793276</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14835,6 +15217,12 @@
           <t>2-s2.0-84951141543</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>1172</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15068,6 +15456,12 @@
           <t>2-s2.0-84942768457</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15301,6 +15695,12 @@
           <t>2-s2.0-84942839328</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15533,6 +15933,12 @@
         <is>
           <t>2-s2.0-84942821246</t>
         </is>
+      </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -15751,6 +16157,12 @@
           <t>2-s2.0-84942837256</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15976,6 +16388,12 @@
           <t>2-s2.0-84942815612</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -16201,6 +16619,12 @@
           <t>2-s2.0-84942746954</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -16434,6 +16858,12 @@
           <t>2-s2.0-84942836511</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16671,6 +17101,12 @@
           <t>2-s2.0-84942824718</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16904,6 +17340,12 @@
           <t>2-s2.0-84942830472</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -17129,6 +17571,12 @@
           <t>2-s2.0-84942800851</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -17350,6 +17798,12 @@
           <t>2-s2.0-84940711928</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -17579,6 +18033,12 @@
           <t>2-s2.0-84939864918</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17800,6 +18260,12 @@
           <t>2-s2.0-84940713187</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -18020,6 +18486,12 @@
         <is>
           <t>2-s2.0-84940713063</t>
         </is>
+      </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -18234,6 +18706,12 @@
           <t>2-s2.0-84939789205</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -18462,6 +18940,12 @@
         <is>
           <t>2-s2.0-84939863620</t>
         </is>
+      </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="81">
@@ -18676,6 +19160,12 @@
           <t>2-s2.0-84939802672</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18897,6 +19387,12 @@
           <t>2-s2.0-84939839218</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -19118,6 +19614,12 @@
           <t>2-s2.0-84939825674</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -19339,6 +19841,12 @@
           <t>2-s2.0-84940712800</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -19560,6 +20068,12 @@
           <t>2-s2.0-84940712656</t>
         </is>
       </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19781,6 +20295,12 @@
           <t>2-s2.0-84940713384</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -20010,6 +20530,12 @@
           <t>2-s2.0-84939803873</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -20239,6 +20765,12 @@
           <t>2-s2.0-84939810711</t>
         </is>
       </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -20460,6 +20992,12 @@
           <t>2-s2.0-84940712456</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -20680,6 +21218,12 @@
         <is>
           <t>2-s2.0-84940712005</t>
         </is>
+      </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -20894,6 +21438,12 @@
           <t>2-s2.0-84940713647</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -21110,6 +21660,12 @@
         <is>
           <t>2-s2.0-84940713403</t>
         </is>
+      </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="93">
@@ -21324,6 +21880,12 @@
           <t>2-s2.0-84940714098</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -21553,6 +22115,12 @@
           <t>2-s2.0-84940712601</t>
         </is>
       </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -21774,6 +22342,12 @@
           <t>2-s2.0-84940713248</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21995,6 +22569,12 @@
           <t>2-s2.0-84939817709</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -22220,6 +22800,12 @@
           <t>2-s2.0-84937900540</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -22441,6 +23027,12 @@
           <t>2-s2.0-84937966611</t>
         </is>
       </c>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -22666,6 +23258,12 @@
           <t>2-s2.0-84937974336</t>
         </is>
       </c>
+      <c r="BT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22887,6 +23485,12 @@
           <t>2-s2.0-84937897210</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -23107,6 +23711,12 @@
         <is>
           <t>2-s2.0-84937971841</t>
         </is>
+      </c>
+      <c r="BT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -23321,6 +23931,12 @@
           <t>2-s2.0-84937970492</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -23538,6 +24154,12 @@
           <t>2-s2.0-84937909957</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -23759,6 +24381,12 @@
           <t>2-s2.0-84937870976</t>
         </is>
       </c>
+      <c r="BT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23976,6 +24604,12 @@
           <t>2-s2.0-84937971130</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -24201,6 +24835,12 @@
           <t>2-s2.0-84937966522</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -24430,6 +25070,12 @@
           <t>2-s2.0-84937977555</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -24649,6 +25295,12 @@
           <t>2-s2.0-84937973781</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -24878,6 +25530,12 @@
           <t>2-s2.0-84937967043</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -25099,6 +25757,12 @@
           <t>2-s2.0-84937968969</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -25324,6 +25988,12 @@
           <t>2-s2.0-84937945911</t>
         </is>
       </c>
+      <c r="BT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -25540,6 +26210,12 @@
         <is>
           <t>2-s2.0-84937902913</t>
         </is>
+      </c>
+      <c r="BT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="113">
@@ -25754,6 +26430,12 @@
           <t>2-s2.0-84937876851</t>
         </is>
       </c>
+      <c r="BT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25975,6 +26657,12 @@
           <t>2-s2.0-84937979046</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -26195,6 +26883,12 @@
         <is>
           <t>2-s2.0-84937973182</t>
         </is>
+      </c>
+      <c r="BT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="116">
@@ -26409,6 +27103,12 @@
           <t>2-s2.0-84937972969</t>
         </is>
       </c>
+      <c r="BT116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -26622,6 +27322,12 @@
           <t>2-s2.0-84937968559</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -26851,6 +27557,12 @@
           <t>2-s2.0-84937971355</t>
         </is>
       </c>
+      <c r="BT118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU118" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -27080,6 +27792,12 @@
           <t>2-s2.0-84937855165</t>
         </is>
       </c>
+      <c r="BT119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU119" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -27308,6 +28026,12 @@
         <is>
           <t>2-s2.0-84937979038</t>
         </is>
+      </c>
+      <c r="BT120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -27514,6 +28238,12 @@
           <t>2-s2.0-84932154010</t>
         </is>
       </c>
+      <c r="BT121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -27734,6 +28464,12 @@
         <is>
           <t>2-s2.0-84932198874</t>
         </is>
+      </c>
+      <c r="BT122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU122" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="123">
@@ -27952,6 +28688,12 @@
           <t>2-s2.0-84932197226</t>
         </is>
       </c>
+      <c r="BT123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU123" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -28181,6 +28923,12 @@
           <t>2-s2.0-84932166072</t>
         </is>
       </c>
+      <c r="BT124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU124" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -28406,6 +29154,12 @@
           <t>2-s2.0-84932193960</t>
         </is>
       </c>
+      <c r="BT125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU125" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -28631,6 +29385,12 @@
           <t>2-s2.0-84932199758</t>
         </is>
       </c>
+      <c r="BT126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU126" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -28860,6 +29620,12 @@
           <t>2-s2.0-84932193700</t>
         </is>
       </c>
+      <c r="BT127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU127" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -29093,6 +29859,12 @@
           <t>2-s2.0-84932192176</t>
         </is>
       </c>
+      <c r="BT128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU128" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -29326,6 +30098,12 @@
           <t>2-s2.0-84932152409</t>
         </is>
       </c>
+      <c r="BT129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU129" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -29559,6 +30337,12 @@
           <t>2-s2.0-84932198979</t>
         </is>
       </c>
+      <c r="BT130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU130" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -29784,6 +30568,12 @@
           <t>2-s2.0-84932195590</t>
         </is>
       </c>
+      <c r="BT131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -30013,6 +30803,12 @@
           <t>2-s2.0-84932195517</t>
         </is>
       </c>
+      <c r="BT132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU132" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -30238,6 +31034,12 @@
           <t>2-s2.0-84932192895</t>
         </is>
       </c>
+      <c r="BT133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU133" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -30463,6 +31265,12 @@
           <t>2-s2.0-84932198111</t>
         </is>
       </c>
+      <c r="BT134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU134" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -30696,6 +31504,12 @@
           <t>2-s2.0-84932196027</t>
         </is>
       </c>
+      <c r="BT135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU135" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -30920,6 +31734,12 @@
         <is>
           <t>2-s2.0-84932195841</t>
         </is>
+      </c>
+      <c r="BT136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU136" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -31138,6 +31958,12 @@
           <t>2-s2.0-84932196675</t>
         </is>
       </c>
+      <c r="BT137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU137" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -31359,6 +32185,12 @@
       <c r="BQ138" t="inlineStr"/>
       <c r="BR138" t="inlineStr"/>
       <c r="BS138" t="inlineStr"/>
+      <c r="BT138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -31592,6 +32424,12 @@
           <t>2-s2.0-84932193880</t>
         </is>
       </c>
+      <c r="BT139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU139" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -31825,6 +32663,12 @@
           <t>2-s2.0-84932199895</t>
         </is>
       </c>
+      <c r="BT140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU140" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -32057,6 +32901,12 @@
         <is>
           <t>2-s2.0-84932199112</t>
         </is>
+      </c>
+      <c r="BT141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU141" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="142">
@@ -32274,6 +33124,12 @@
         <is>
           <t>2-s2.0-84932195336</t>
         </is>
+      </c>
+      <c r="BT142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU142" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -32488,6 +33344,12 @@
           <t>2-s2.0-84929698522</t>
         </is>
       </c>
+      <c r="BT143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -32708,6 +33570,12 @@
         <is>
           <t>2-s2.0-84929705590</t>
         </is>
+      </c>
+      <c r="BT144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU144" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="145">
@@ -32926,6 +33794,12 @@
           <t>2-s2.0-84929707055</t>
         </is>
       </c>
+      <c r="BT145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU145" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -33151,6 +34025,12 @@
           <t>2-s2.0-84929708837</t>
         </is>
       </c>
+      <c r="BT146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU146" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -33384,6 +34264,12 @@
           <t>2-s2.0-84929710507</t>
         </is>
       </c>
+      <c r="BT147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU147" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -33609,6 +34495,12 @@
           <t>2-s2.0-84929710238</t>
         </is>
       </c>
+      <c r="BT148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -33837,6 +34729,12 @@
         <is>
           <t>2-s2.0-84929707031</t>
         </is>
+      </c>
+      <c r="BT149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU149" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="150">
@@ -34055,6 +34953,12 @@
           <t>2-s2.0-84929711613</t>
         </is>
       </c>
+      <c r="BT150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -34280,6 +35184,12 @@
           <t>2-s2.0-84929710602</t>
         </is>
       </c>
+      <c r="BT151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU151" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -34509,6 +35419,12 @@
           <t>2-s2.0-84929706292</t>
         </is>
       </c>
+      <c r="BT152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU152" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -34738,6 +35654,12 @@
           <t>2-s2.0-84929710000</t>
         </is>
       </c>
+      <c r="BT153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU153" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -34963,6 +35885,12 @@
           <t>2-s2.0-84929711556</t>
         </is>
       </c>
+      <c r="BT154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -35195,6 +36123,12 @@
         <is>
           <t>2-s2.0-84929707274</t>
         </is>
+      </c>
+      <c r="BT155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU155" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="156">
@@ -35413,6 +36347,12 @@
           <t>2-s2.0-84929703983</t>
         </is>
       </c>
+      <c r="BT156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU156" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -35630,6 +36570,12 @@
           <t>2-s2.0-84929672293</t>
         </is>
       </c>
+      <c r="BT157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU157" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -35863,6 +36809,12 @@
           <t>2-s2.0-84929676013</t>
         </is>
       </c>
+      <c r="BT158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU158" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -36088,6 +37040,12 @@
           <t>2-s2.0-84929708348</t>
         </is>
       </c>
+      <c r="BT159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -36309,6 +37267,12 @@
           <t>2-s2.0-84929669508</t>
         </is>
       </c>
+      <c r="BT160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU160" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -36533,6 +37497,12 @@
         <is>
           <t>2-s2.0-84929709372</t>
         </is>
+      </c>
+      <c r="BT161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU161" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="162">
@@ -36747,6 +37717,12 @@
           <t>2-s2.0-84928761049</t>
         </is>
       </c>
+      <c r="BT162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU162" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -36967,6 +37943,12 @@
         <is>
           <t>2-s2.0-84928763021</t>
         </is>
+      </c>
+      <c r="BT163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU163" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="164">
@@ -37181,6 +38163,12 @@
           <t>2-s2.0-84928769501</t>
         </is>
       </c>
+      <c r="BT164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -37394,6 +38382,12 @@
           <t>2-s2.0-84928768856</t>
         </is>
       </c>
+      <c r="BT165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -37623,6 +38617,12 @@
           <t>2-s2.0-84928754563</t>
         </is>
       </c>
+      <c r="BT166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU166" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -37852,6 +38852,12 @@
           <t>2-s2.0-84928769603</t>
         </is>
       </c>
+      <c r="BT167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU167" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -38072,6 +39078,12 @@
         <is>
           <t>2-s2.0-84928768665</t>
         </is>
+      </c>
+      <c r="BT168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU168" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -38286,6 +39298,12 @@
           <t>2-s2.0-84928774706</t>
         </is>
       </c>
+      <c r="BT169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -38507,6 +39525,12 @@
           <t>2-s2.0-84928761194</t>
         </is>
       </c>
+      <c r="BT170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU170" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -38723,6 +39747,12 @@
         <is>
           <t>2-s2.0-84928656660</t>
         </is>
+      </c>
+      <c r="BT171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU171" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="172">
@@ -38937,6 +39967,12 @@
           <t>2-s2.0-84928774737</t>
         </is>
       </c>
+      <c r="BT172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU172" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -39166,6 +40202,12 @@
           <t>2-s2.0-84928758760</t>
         </is>
       </c>
+      <c r="BT173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU173" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -39387,6 +40429,12 @@
           <t>2-s2.0-84928760958</t>
         </is>
       </c>
+      <c r="BT174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU174" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -39612,6 +40660,12 @@
           <t>2-s2.0-84928755217</t>
         </is>
       </c>
+      <c r="BT175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU175" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -39837,6 +40891,12 @@
           <t>2-s2.0-84928774033</t>
         </is>
       </c>
+      <c r="BT176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU176" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -40058,6 +41118,12 @@
           <t>2-s2.0-84928684938</t>
         </is>
       </c>
+      <c r="BT177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU177" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -40279,6 +41345,12 @@
           <t>2-s2.0-84928774426</t>
         </is>
       </c>
+      <c r="BT178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU178" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -40500,6 +41572,12 @@
           <t>2-s2.0-84928763034</t>
         </is>
       </c>
+      <c r="BT179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU179" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -40721,6 +41799,12 @@
           <t>2-s2.0-84928767618</t>
         </is>
       </c>
+      <c r="BT180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU180" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -40950,6 +42034,12 @@
           <t>2-s2.0-84928774511</t>
         </is>
       </c>
+      <c r="BT181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU181" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -41179,6 +42269,12 @@
           <t>2-s2.0-84928769742</t>
         </is>
       </c>
+      <c r="BT182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU182" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -41400,6 +42496,12 @@
           <t>2-s2.0-84928758920</t>
         </is>
       </c>
+      <c r="BT183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU183" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -41620,6 +42722,12 @@
         <is>
           <t>2-s2.0-84925307641</t>
         </is>
+      </c>
+      <c r="BT184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU184" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -41826,6 +42934,12 @@
           <t>2-s2.0-84925339553</t>
         </is>
       </c>
+      <c r="BT185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -42071,6 +43185,12 @@
           <t>2-s2.0-84925300482</t>
         </is>
       </c>
+      <c r="BT186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU186" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -42308,6 +43428,12 @@
           <t>2-s2.0-84925365752</t>
         </is>
       </c>
+      <c r="BT187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU187" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -42541,6 +43667,12 @@
           <t>2-s2.0-84925310407</t>
         </is>
       </c>
+      <c r="BT188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU188" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -42786,6 +43918,12 @@
           <t>2-s2.0-84925378575</t>
         </is>
       </c>
+      <c r="BT189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU189" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -43023,6 +44161,12 @@
           <t>2-s2.0-84925361196</t>
         </is>
       </c>
+      <c r="BT190" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU190" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -43260,6 +44404,12 @@
           <t>2-s2.0-84925345773</t>
         </is>
       </c>
+      <c r="BT191" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU191" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -43497,6 +44647,12 @@
           <t>2-s2.0-84925337923</t>
         </is>
       </c>
+      <c r="BT192" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU192" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -43742,6 +44898,12 @@
           <t>2-s2.0-84925356060</t>
         </is>
       </c>
+      <c r="BT193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -43987,6 +45149,12 @@
           <t>2-s2.0-84925347836</t>
         </is>
       </c>
+      <c r="BT194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -44228,6 +45396,12 @@
           <t>2-s2.0-84925349536</t>
         </is>
       </c>
+      <c r="BT195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU195" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -44473,6 +45647,12 @@
           <t>2-s2.0-84925357036</t>
         </is>
       </c>
+      <c r="BT196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU196" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -44710,6 +45890,12 @@
           <t>2-s2.0-84925351847</t>
         </is>
       </c>
+      <c r="BT197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU197" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -44951,6 +46137,12 @@
           <t>2-s2.0-84925378648</t>
         </is>
       </c>
+      <c r="BT198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU198" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -45188,6 +46380,12 @@
           <t>2-s2.0-84925355860</t>
         </is>
       </c>
+      <c r="BT199" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU199" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -45433,6 +46631,12 @@
           <t>2-s2.0-84925369322</t>
         </is>
       </c>
+      <c r="BT200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU200" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -45665,6 +46869,12 @@
         <is>
           <t>2-s2.0-84925303258</t>
         </is>
+      </c>
+      <c r="BT201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU201" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -45879,6 +47089,12 @@
           <t>2-s2.0-84925349188</t>
         </is>
       </c>
+      <c r="BT202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -46124,6 +47340,12 @@
           <t>2-s2.0-84925378788</t>
         </is>
       </c>
+      <c r="BT203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU203" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -46369,6 +47591,12 @@
           <t>2-s2.0-84925355369</t>
         </is>
       </c>
+      <c r="BT204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU204" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -46617,6 +47845,12 @@
         <is>
           <t>2-s2.0-84925377594</t>
         </is>
+      </c>
+      <c r="BT205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU205" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="206">
@@ -46850,6 +48084,12 @@
         <is>
           <t>2-s2.0-84925371539</t>
         </is>
+      </c>
+      <c r="BT206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="207">
@@ -47072,6 +48312,12 @@
           <t>2-s2.0-84923472893</t>
         </is>
       </c>
+      <c r="BT207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU207" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -47293,6 +48539,12 @@
           <t>2-s2.0-84923459977</t>
         </is>
       </c>
+      <c r="BT208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU208" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -47522,6 +48774,12 @@
           <t>2-s2.0-84923488093</t>
         </is>
       </c>
+      <c r="BT209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU209" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -47743,6 +49001,12 @@
           <t>2-s2.0-84923484503</t>
         </is>
       </c>
+      <c r="BT210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU210" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -47972,6 +49236,12 @@
           <t>2-s2.0-84923466954</t>
         </is>
       </c>
+      <c r="BT211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU211" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -48189,6 +49459,12 @@
           <t>2-s2.0-84923512843</t>
         </is>
       </c>
+      <c r="BT212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -48410,6 +49686,12 @@
           <t>2-s2.0-84923429693</t>
         </is>
       </c>
+      <c r="BT213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU213" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -48639,6 +49921,12 @@
           <t>2-s2.0-84923393918</t>
         </is>
       </c>
+      <c r="BT214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU214" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -48860,6 +50148,12 @@
           <t>2-s2.0-84923521855</t>
         </is>
       </c>
+      <c r="BT215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU215" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -49089,6 +50383,12 @@
           <t>2-s2.0-84923502951</t>
         </is>
       </c>
+      <c r="BT216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU216" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -49318,6 +50618,12 @@
           <t>2-s2.0-84923467253</t>
         </is>
       </c>
+      <c r="BT217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -49539,6 +50845,12 @@
           <t>2-s2.0-84923432445</t>
         </is>
       </c>
+      <c r="BT218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU218" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -49760,6 +51072,12 @@
           <t>2-s2.0-84923468170</t>
         </is>
       </c>
+      <c r="BT219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU219" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -49977,6 +51295,12 @@
           <t>2-s2.0-84923299776</t>
         </is>
       </c>
+      <c r="BT220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -50198,6 +51522,12 @@
           <t>2-s2.0-84923304148</t>
         </is>
       </c>
+      <c r="BT221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -50419,6 +51749,12 @@
           <t>2-s2.0-84923312464</t>
         </is>
       </c>
+      <c r="BT222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU222" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -50640,6 +51976,12 @@
           <t>2-s2.0-84923446562</t>
         </is>
       </c>
+      <c r="BT223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU223" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -50861,6 +52203,12 @@
           <t>2-s2.0-84923282769</t>
         </is>
       </c>
+      <c r="BT224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU224" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -51090,6 +52438,12 @@
           <t>2-s2.0-84923461285</t>
         </is>
       </c>
+      <c r="BT225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU225" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -51311,6 +52665,12 @@
           <t>2-s2.0-84923466717</t>
         </is>
       </c>
+      <c r="BT226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU226" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -51532,6 +52892,12 @@
           <t>2-s2.0-84921610169</t>
         </is>
       </c>
+      <c r="BT227" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU227" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -51752,6 +53118,12 @@
         <is>
           <t>2-s2.0-84946158454</t>
         </is>
+      </c>
+      <c r="BT228" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU228" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="229">
@@ -51966,6 +53338,12 @@
           <t>2-s2.0-84921616415</t>
         </is>
       </c>
+      <c r="BT229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU229" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -52187,6 +53565,12 @@
           <t>2-s2.0-84921496138</t>
         </is>
       </c>
+      <c r="BT230" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU230" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -52408,6 +53792,12 @@
           <t>2-s2.0-84921602621</t>
         </is>
       </c>
+      <c r="BT231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU231" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -52629,6 +54019,12 @@
           <t>2-s2.0-84921545783</t>
         </is>
       </c>
+      <c r="BT232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU232" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -52858,6 +54254,12 @@
           <t>2-s2.0-84921602442</t>
         </is>
       </c>
+      <c r="BT233" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU233" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -53079,6 +54481,12 @@
           <t>2-s2.0-84921539741</t>
         </is>
       </c>
+      <c r="BT234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU234" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -53300,6 +54708,12 @@
           <t>2-s2.0-84921604080</t>
         </is>
       </c>
+      <c r="BT235" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU235" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -53521,6 +54935,12 @@
           <t>2-s2.0-84921502852</t>
         </is>
       </c>
+      <c r="BT236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU236" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -53748,6 +55168,12 @@
           <t>2-s2.0-84921458172</t>
         </is>
       </c>
+      <c r="BT237" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU237" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -53973,6 +55399,12 @@
           <t>2-s2.0-84921523054</t>
         </is>
       </c>
+      <c r="BT238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU238" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -54194,6 +55626,12 @@
           <t>2-s2.0-84921600820</t>
         </is>
       </c>
+      <c r="BT239" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU239" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -54419,6 +55857,12 @@
           <t>2-s2.0-84921480202</t>
         </is>
       </c>
+      <c r="BT240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU240" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -54644,6 +56088,12 @@
           <t>2-s2.0-84921603616</t>
         </is>
       </c>
+      <c r="BT241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -54865,6 +56315,12 @@
           <t>2-s2.0-84921597524</t>
         </is>
       </c>
+      <c r="BT242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU242" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -55094,6 +56550,12 @@
           <t>2-s2.0-84921542461</t>
         </is>
       </c>
+      <c r="BT243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU243" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -55323,6 +56785,12 @@
           <t>2-s2.0-84921599575</t>
         </is>
       </c>
+      <c r="BT244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU244" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -55544,6 +57012,12 @@
           <t>2-s2.0-84921601930</t>
         </is>
       </c>
+      <c r="BT245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU245" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -55764,6 +57238,12 @@
         <is>
           <t>2-s2.0-84921552662</t>
         </is>
+      </c>
+      <c r="BT246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU246" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="247">
@@ -55958,6 +57438,12 @@
           <t>2-s2.0-84919386615</t>
         </is>
       </c>
+      <c r="BT247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -56183,6 +57669,12 @@
           <t>2-s2.0-84919363414</t>
         </is>
       </c>
+      <c r="BT248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU248" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -56404,6 +57896,12 @@
           <t>2-s2.0-84919380722</t>
         </is>
       </c>
+      <c r="BT249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU249" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -56629,6 +58127,12 @@
           <t>2-s2.0-84919360990</t>
         </is>
       </c>
+      <c r="BT250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU250" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -56858,6 +58362,12 @@
           <t>2-s2.0-84919346768</t>
         </is>
       </c>
+      <c r="BT251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU251" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -57078,6 +58588,12 @@
         <is>
           <t>2-s2.0-84919338734</t>
         </is>
+      </c>
+      <c r="BT252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU252" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="253">
@@ -57292,6 +58808,12 @@
           <t>2-s2.0-84919363411</t>
         </is>
       </c>
+      <c r="BT253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU253" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -57521,6 +59043,12 @@
           <t>2-s2.0-84919372317</t>
         </is>
       </c>
+      <c r="BT254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU254" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -57742,6 +59270,12 @@
           <t>2-s2.0-84919336816</t>
         </is>
       </c>
+      <c r="BT255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU255" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -57963,6 +59497,12 @@
           <t>2-s2.0-84919385270</t>
         </is>
       </c>
+      <c r="BT256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU256" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -58184,6 +59724,12 @@
           <t>2-s2.0-84919360991</t>
         </is>
       </c>
+      <c r="BT257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU257" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -58413,6 +59959,12 @@
           <t>2-s2.0-84919385748</t>
         </is>
       </c>
+      <c r="BT258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU258" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -58634,6 +60186,12 @@
           <t>2-s2.0-84919351545</t>
         </is>
       </c>
+      <c r="BT259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU259" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -58855,6 +60413,12 @@
           <t>2-s2.0-84919383550</t>
         </is>
       </c>
+      <c r="BT260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU260" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -59076,6 +60640,12 @@
           <t>2-s2.0-84919335680</t>
         </is>
       </c>
+      <c r="BT261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -59296,6 +60866,12 @@
         <is>
           <t>2-s2.0-84919352212</t>
         </is>
+      </c>
+      <c r="BT262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU262" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="263">
@@ -59510,6 +61086,12 @@
           <t>2-s2.0-84919346769</t>
         </is>
       </c>
+      <c r="BT263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU263" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -59723,6 +61305,12 @@
           <t>2-s2.0-84919381987</t>
         </is>
       </c>
+      <c r="BT264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU264" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -59936,6 +61524,12 @@
           <t>2-s2.0-84919390670</t>
         </is>
       </c>
+      <c r="BT265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU265" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -60149,6 +61743,12 @@
           <t>2-s2.0-84919363395</t>
         </is>
       </c>
+      <c r="BT266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU266" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -60378,6 +61978,12 @@
           <t>2-s2.0-84919346078</t>
         </is>
       </c>
+      <c r="BT267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU267" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -60599,6 +62205,12 @@
           <t>2-s2.0-84919329394</t>
         </is>
       </c>
+      <c r="BT268" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU268" t="n">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
